--- a/src/test/resources/DataProvider/FetchData.xlsx
+++ b/src/test/resources/DataProvider/FetchData.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\MODOT\src\test\resources\DataProvider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Selenium\Modot_celtic-main\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D287DBB0-A914-4320-8DBE-292ADCE1EB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854DAE6F-466B-489F-A8A6-D74A6C8EA09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Account" r:id="rId5" sheetId="2"/>
-    <sheet name="Fleet" r:id="rId6" sheetId="3"/>
+    <sheet name="Account" sheetId="2" r:id="rId2"/>
+    <sheet name="Fleet" sheetId="3" r:id="rId3"/>
+    <sheet name="WeightGrouptab" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>MCE Customer ID</t>
   </si>
@@ -228,7 +229,7 @@
     <t>Power of Attorney Effective Date</t>
   </si>
   <si>
-    <t>09/07/2022</t>
+    <t>09/08/2022</t>
   </si>
   <si>
     <t>Power of Attorney Expiration Date</t>
@@ -267,9 +268,6 @@
     <t>*Primary Phone</t>
   </si>
   <si>
-    <t>*Fax No.</t>
-  </si>
-  <si>
     <t>Change Vehicle USDOT / TPID</t>
   </si>
   <si>
@@ -313,13 +311,57 @@
   </si>
   <si>
     <t>Mobile Notification</t>
+  </si>
+  <si>
+    <t>N - NOT REQUIRED</t>
+  </si>
+  <si>
+    <t>Statement of Understanding</t>
+  </si>
+  <si>
+    <t>Installment Agreement</t>
+  </si>
+  <si>
+    <t>IRP Requirements Form</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP NO.</t>
+  </si>
+  <si>
+    <t>WEIGHT GROUP TYPE</t>
+  </si>
+  <si>
+    <t>BASE JURISDICTION WEIGHT</t>
+  </si>
+  <si>
+    <t>MAX GROSS WEIGHT</t>
+  </si>
+  <si>
+    <t>JUR WITH DIFFERENT WEIGHTS</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>P - POWER UNIT</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>AL, AR, AZ</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>66000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,8 +391,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424232C0-8826-4BF2-B36C-E540130D384C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -644,181 +689,179 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="s">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" t="s">
+      <c r="U1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="V1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="W1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="X1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2"/>
-      <c r="G2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2"/>
-      <c r="L2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" t="s">
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P2" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q2"/>
-      <c r="R2" t="s">
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S2" t="s">
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W2" t="s">
+      <c r="T2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X2" t="s">
+      <c r="U2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="V2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="W2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -952,7 +995,7 @@
         <v>31</v>
       </c>
       <c r="AS1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="AT1" t="s">
         <v>25</v>
@@ -961,37 +1004,49 @@
         <v>23</v>
       </c>
       <c r="AV1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW1" t="s">
         <v>63</v>
       </c>
-      <c r="AW1" t="s">
-        <v>64</v>
-      </c>
       <c r="AX1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AY1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AZ1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BA1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB1" t="s">
         <v>72</v>
       </c>
-      <c r="BB1" t="s">
-        <v>73</v>
-      </c>
       <c r="BC1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD1" t="s">
         <v>75</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>76</v>
       </c>
-      <c r="BE1" t="s">
-        <v>77</v>
+      <c r="BF1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:61" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1129,28 +1184,113 @@
       </c>
       <c r="AV2"/>
       <c r="AW2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AX2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AY2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BA2"/>
       <c r="BB2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BC2"/>
       <c r="BD2" t="s">
         <v>35</v>
       </c>
       <c r="BE2"/>
+      <c r="BF2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>